--- a/data/cargas/usuarios.xlsx
+++ b/data/cargas/usuarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-react\a - meus projetos\cydag\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-react\a - meus projetos\cydag\data\cargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3BDC65-FDAD-4B79-A849-1239D69FA198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50245212-9601-48C5-8F4D-7673C8B81B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="usuarios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">usuarios!$A$1:$H$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">usuarios!$A$1:$H$226</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="462">
   <si>
     <t>n</t>
   </si>
@@ -1039,12 +1039,6 @@
     <t>Pauline Duailibe</t>
   </si>
   <si>
-    <t>pcintra1@gmail.com</t>
-  </si>
-  <si>
-    <t>Paulo Cintra prd</t>
-  </si>
-  <si>
     <t>Pedro.Nascimento@cyrela.com.br</t>
   </si>
   <si>
@@ -1201,9 +1195,6 @@
     <t>Rosemeire Bastos Costa</t>
   </si>
   <si>
-    <t>Salvador Henrique da Silva</t>
-  </si>
-  <si>
     <t>Sigrid.Barcelos@cyrela.com.br</t>
   </si>
   <si>
@@ -1418,9 +1409,6 @@
   </si>
   <si>
     <t>gestor_contr,cons_todos_ccs</t>
-  </si>
-  <si>
-    <t>cons_todos_ccs</t>
   </si>
 </sst>
 </file>
@@ -2268,11 +2256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,31 +2277,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" t="s">
         <v>456</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" t="s">
         <v>457</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H1" t="s">
-        <v>459</v>
-      </c>
-      <c r="I1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3096,7 +3084,7 @@
         <v>60</v>
       </c>
       <c r="I31" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3177,7 +3165,7 @@
         <v>60</v>
       </c>
       <c r="I34" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3700,7 +3688,7 @@
         <v>60</v>
       </c>
       <c r="I54" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3859,7 +3847,7 @@
         <v>60</v>
       </c>
       <c r="I60" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4304,7 +4292,7 @@
         <v>60</v>
       </c>
       <c r="I77" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -4593,7 +4581,7 @@
         <v>60</v>
       </c>
       <c r="I88" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4726,7 +4714,7 @@
         <v>60</v>
       </c>
       <c r="I93" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -5353,7 +5341,7 @@
         <v>60</v>
       </c>
       <c r="I117" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5382,7 +5370,7 @@
         <v>60</v>
       </c>
       <c r="I118" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5489,7 +5477,7 @@
         <v>60</v>
       </c>
       <c r="I122" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -6116,7 +6104,7 @@
         <v>60</v>
       </c>
       <c r="I146" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -6145,7 +6133,7 @@
         <v>60</v>
       </c>
       <c r="I147" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -6226,7 +6214,7 @@
         <v>60</v>
       </c>
       <c r="I150" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6411,7 +6399,7 @@
         <v>60</v>
       </c>
       <c r="I157" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -6763,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E171" t="s">
         <v>0</v>
@@ -6776,9 +6764,6 @@
       </c>
       <c r="H171" t="s">
         <v>60</v>
-      </c>
-      <c r="I171" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -6844,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E174" t="s">
         <v>0</v>
@@ -6857,6 +6842,9 @@
       </c>
       <c r="H174" t="s">
         <v>60</v>
+      </c>
+      <c r="I174" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6870,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E175" t="s">
         <v>0</v>
@@ -6883,9 +6871,6 @@
       </c>
       <c r="H175" t="s">
         <v>60</v>
-      </c>
-      <c r="I175" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -7000,22 +6985,25 @@
         <v>357</v>
       </c>
       <c r="C180" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D180" t="s">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F180" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G180" t="s">
         <v>0</v>
       </c>
       <c r="H180" t="s">
         <v>60</v>
+      </c>
+      <c r="I180" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -7026,25 +7014,22 @@
         <v>359</v>
       </c>
       <c r="C181" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D181" t="s">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G181" t="s">
         <v>0</v>
       </c>
       <c r="H181" t="s">
         <v>60</v>
-      </c>
-      <c r="I181" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7445,16 +7430,16 @@
         <v>391</v>
       </c>
       <c r="C197" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D197" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E197" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F197" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G197" t="s">
         <v>0</v>
@@ -7462,10 +7447,16 @@
       <c r="H197" t="s">
         <v>60</v>
       </c>
+      <c r="I197" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>392</v>
+      </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C198" t="s">
         <v>0</v>
@@ -7477,36 +7468,33 @@
         <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G198" t="s">
         <v>0</v>
       </c>
       <c r="H198" t="s">
         <v>60</v>
-      </c>
-      <c r="I198" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C199" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D199" t="s">
         <v>60</v>
       </c>
       <c r="E199" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G199" t="s">
         <v>0</v>
@@ -7515,15 +7503,15 @@
         <v>60</v>
       </c>
       <c r="I199" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B200" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C200" t="s">
         <v>0</v>
@@ -7546,16 +7534,16 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B201" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C201" t="s">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E201" t="s">
         <v>0</v>
@@ -7568,17 +7556,14 @@
       </c>
       <c r="H201" t="s">
         <v>60</v>
-      </c>
-      <c r="I201" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B202" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C202" t="s">
         <v>0</v>
@@ -7601,10 +7586,10 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B203" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C203" t="s">
         <v>0</v>
@@ -7627,10 +7612,10 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B204" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C204" t="s">
         <v>0</v>
@@ -7653,10 +7638,10 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B205" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C205" t="s">
         <v>0</v>
@@ -7679,10 +7664,10 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B206" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C206" t="s">
         <v>0</v>
@@ -7705,16 +7690,16 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B207" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C207" t="s">
         <v>0</v>
       </c>
       <c r="D207" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E207" t="s">
         <v>0</v>
@@ -7727,14 +7712,17 @@
       </c>
       <c r="H207" t="s">
         <v>60</v>
+      </c>
+      <c r="I207" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C208" t="s">
         <v>0</v>
@@ -7757,16 +7745,16 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B209" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C209" t="s">
         <v>0</v>
       </c>
       <c r="D209" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E209" t="s">
         <v>0</v>
@@ -7779,17 +7767,14 @@
       </c>
       <c r="H209" t="s">
         <v>60</v>
-      </c>
-      <c r="I209" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B210" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C210" t="s">
         <v>0</v>
@@ -7812,10 +7797,10 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>418</v>
+      </c>
+      <c r="B211" t="s">
         <v>417</v>
-      </c>
-      <c r="B211" t="s">
-        <v>418</v>
       </c>
       <c r="C211" t="s">
         <v>0</v>
@@ -7867,33 +7852,36 @@
         <v>421</v>
       </c>
       <c r="B213" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C213" t="s">
         <v>0</v>
       </c>
       <c r="D213" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E213" t="s">
         <v>0</v>
       </c>
       <c r="F213" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G213" t="s">
         <v>0</v>
       </c>
       <c r="H213" t="s">
         <v>60</v>
+      </c>
+      <c r="I213" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B214" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C214" t="s">
         <v>0</v>
@@ -7916,39 +7904,36 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B215" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C215" t="s">
         <v>0</v>
       </c>
       <c r="D215" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E215" t="s">
         <v>0</v>
       </c>
       <c r="F215" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G215" t="s">
         <v>0</v>
       </c>
       <c r="H215" t="s">
         <v>60</v>
-      </c>
-      <c r="I215" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B216" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C216" t="s">
         <v>0</v>
@@ -7971,10 +7956,10 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B217" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C217" t="s">
         <v>0</v>
@@ -7997,10 +7982,10 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B218" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C218" t="s">
         <v>0</v>
@@ -8023,13 +8008,13 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B219" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C219" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D219" t="s">
         <v>0</v>
@@ -8038,21 +8023,24 @@
         <v>0</v>
       </c>
       <c r="F219" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G219" t="s">
         <v>0</v>
       </c>
       <c r="H219" t="s">
         <v>60</v>
+      </c>
+      <c r="I219" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B220" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C220" t="s">
         <v>0</v>
@@ -8075,13 +8063,13 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B221" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C221" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D221" t="s">
         <v>0</v>
@@ -8090,24 +8078,21 @@
         <v>0</v>
       </c>
       <c r="F221" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G221" t="s">
         <v>0</v>
       </c>
       <c r="H221" t="s">
         <v>60</v>
-      </c>
-      <c r="I221" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B222" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C222" t="s">
         <v>0</v>
@@ -8130,10 +8115,10 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B223" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C223" t="s">
         <v>0</v>
@@ -8156,10 +8141,10 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B224" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C224" t="s">
         <v>0</v>
@@ -8182,10 +8167,10 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B225" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C225" t="s">
         <v>0</v>
@@ -8208,10 +8193,10 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B226" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C226" t="s">
         <v>0</v>
@@ -8232,60 +8217,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>448</v>
-      </c>
-      <c r="B227" t="s">
-        <v>449</v>
-      </c>
-      <c r="C227" t="s">
-        <v>0</v>
-      </c>
-      <c r="D227" t="s">
-        <v>0</v>
-      </c>
-      <c r="E227" t="s">
-        <v>0</v>
-      </c>
-      <c r="F227" t="s">
-        <v>0</v>
-      </c>
-      <c r="G227" t="s">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>450</v>
-      </c>
-      <c r="B228" t="s">
-        <v>451</v>
-      </c>
-      <c r="C228" t="s">
-        <v>0</v>
-      </c>
-      <c r="D228" t="s">
-        <v>0</v>
-      </c>
-      <c r="E228" t="s">
-        <v>0</v>
-      </c>
-      <c r="F228" t="s">
-        <v>0</v>
-      </c>
-      <c r="G228" t="s">
-        <v>0</v>
-      </c>
-      <c r="H228" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H228" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H226" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/data/cargas/usuarios.xlsx
+++ b/data/cargas/usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-react\a - meus projetos\cydag\data\cargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50245212-9601-48C5-8F4D-7673C8B81B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BEA35A-2A24-4C56-848F-410B4FD9E776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="usuarios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">usuarios!$A$1:$H$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">usuarios!$A$1:$H$225</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="461">
   <si>
     <t>n</t>
   </si>
@@ -34,15 +34,9 @@
     <t>Adriana Celestino</t>
   </si>
   <si>
-    <t>Adriano.Ferreira@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Adriano Perez Miranda Ferreira</t>
   </si>
   <si>
-    <t>AlainDeveza@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Alain Deveza</t>
   </si>
   <si>
@@ -58,15 +52,9 @@
     <t>Alcir Magro</t>
   </si>
   <si>
-    <t>Alexandre.Dentes@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Alexandre Koin Krounse Dentes</t>
   </si>
   <si>
-    <t>Alexandre.Lopes@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Alexandre De Franco Lopes</t>
   </si>
   <si>
@@ -100,21 +88,12 @@
     <t>Ana Carolina Duarte Oliveira Queiroz</t>
   </si>
   <si>
-    <t>Ana.Serpa@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Ana Paula Serpa Bizarro</t>
   </si>
   <si>
-    <t>ANDERSON.ALEXANDRE@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Anderson Camargo Alexandre</t>
   </si>
   <si>
-    <t>AndersonCaetano@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Anderson Caetano</t>
   </si>
   <si>
@@ -124,21 +103,12 @@
     <t>Andre Mesquita Britto</t>
   </si>
   <si>
-    <t>Andre.Silva@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Andre Chamati da Silva</t>
   </si>
   <si>
-    <t>AndreaF@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Andrea Ferragut</t>
   </si>
   <si>
-    <t>AndressaCanssi@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Andressa Canssi</t>
   </si>
   <si>
@@ -148,51 +118,27 @@
     <t>Antonio Carlos Zorzi</t>
   </si>
   <si>
-    <t>Arielle.Saboia@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Arielle Madeira Saboia</t>
   </si>
   <si>
-    <t>arthur.Inacio@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Arthur Soares Inacio</t>
   </si>
   <si>
-    <t>Augusto.Santos@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Augusto Alves Santos</t>
   </si>
   <si>
-    <t>Bianca.Abreu@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Bianca Ramos De Abreu</t>
   </si>
   <si>
-    <t>BiankaVervloet@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Bianka Vervloet</t>
   </si>
   <si>
-    <t>Bruno.Silva@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Bruno Watanabe Moura Silva</t>
   </si>
   <si>
-    <t>BrunoLeal@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Bruno Leal</t>
   </si>
   <si>
-    <t>Caio.Pereira@vivazvendas.com.br</t>
-  </si>
-  <si>
     <t>Caio Cesar Pereira De Arruda</t>
   </si>
   <si>
@@ -202,18 +148,12 @@
     <t>Camila Conte</t>
   </si>
   <si>
-    <t>Camila.Medronha@cyrela.com.br</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
     <t>Camila Medronha Da Silva</t>
   </si>
   <si>
-    <t>CarlosBandeira@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Carlos Bandeira</t>
   </si>
   <si>
@@ -223,21 +163,12 @@
     <t>Carlos Grazina</t>
   </si>
   <si>
-    <t>Carolina.Festugatto@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Carolina Sehnem Festugatto</t>
   </si>
   <si>
-    <t>Caroline.Caser@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Caroline De Assuncao Caser</t>
   </si>
   <si>
-    <t>Caroline.Souza@vivazvendas.com.br</t>
-  </si>
-  <si>
     <t>Caroline Souza</t>
   </si>
   <si>
@@ -253,18 +184,12 @@
     <t>Celso Antonio Alves</t>
   </si>
   <si>
-    <t>Christiane.Menegario@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Christiane Menegario</t>
   </si>
   <si>
     <t>christiane.menegario@cyrela.com.br</t>
   </si>
   <si>
-    <t>christianeNava@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Christiane Nava</t>
   </si>
   <si>
@@ -280,27 +205,15 @@
     <t>Cristiane Fatima Debiasi Gandini</t>
   </si>
   <si>
-    <t>Cristianebraga@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Cristiane Braga</t>
   </si>
   <si>
-    <t>Cristina.Carneiro@vivazvendas.com.br</t>
-  </si>
-  <si>
     <t>Cristina Carneiro</t>
   </si>
   <si>
-    <t>CYRELA\SHEILA.CARDOSO@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Sheila Adriane Cardoso</t>
   </si>
   <si>
-    <t>Daniel.Polizel@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Daniel de Oliveira Polizel</t>
   </si>
   <si>
@@ -310,27 +223,15 @@
     <t>Daniela de Farias Oppitz</t>
   </si>
   <si>
-    <t>Daniele.Oliveira@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Daniele Rodrigues De Oliveira</t>
   </si>
   <si>
-    <t>DaniloA@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Danilo Assolant</t>
   </si>
   <si>
-    <t>Davi.Cardoso@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Davi Silva Cardoso</t>
   </si>
   <si>
-    <t>David.Silva@cyrela.com.br</t>
-  </si>
-  <si>
     <t>David Alexandre da Silva</t>
   </si>
   <si>
@@ -340,42 +241,21 @@
     <t>Debora Beraldes Costa Galvão</t>
   </si>
   <si>
-    <t>Deborah.Bora@cashme.com.br</t>
-  </si>
-  <si>
     <t>Deborah Nunes Cuba Bora</t>
   </si>
   <si>
-    <t>Deborah.Bora@cyrela.com.br</t>
-  </si>
-  <si>
-    <t>Denise.Borin@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Denise Padilha Borin</t>
   </si>
   <si>
-    <t>DeniseT@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Denise Trevisan</t>
   </si>
   <si>
-    <t>Diana.Fan@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Diana Chi Yin Fan</t>
   </si>
   <si>
-    <t>DiegoAlves@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Diego Alves</t>
   </si>
   <si>
-    <t>Diogo.Fernandes@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Diogo Retti Fernandes</t>
   </si>
   <si>
@@ -397,21 +277,12 @@
     <t>Eduardo de Arruda Casagrande</t>
   </si>
   <si>
-    <t>Eduardo.Lopes@cashme.com.br</t>
-  </si>
-  <si>
     <t>Eduardo Silva Lopes</t>
   </si>
   <si>
-    <t>EfraimH@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Efraim Horn</t>
   </si>
   <si>
-    <t>EleniceNa@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Elenice Nascimento</t>
   </si>
   <si>
@@ -421,57 +292,30 @@
     <t>Elie Horn</t>
   </si>
   <si>
-    <t>EricaCavalcante@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Erica Cavalcante</t>
   </si>
   <si>
-    <t>Erick.Santos@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Erick Rodrigues das Graças dos Santos</t>
   </si>
   <si>
-    <t>Fabiana.Torres@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Fabiana Torres</t>
   </si>
   <si>
-    <t>Felipe.Cunha@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Felipe Russo de Almeida Cunha</t>
   </si>
   <si>
-    <t>Felipekumstat@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Felipe Kumstat</t>
   </si>
   <si>
-    <t>Fernanda.Camarini@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Fernanda Camarini Santos</t>
   </si>
   <si>
-    <t>Fernandaparanhos@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Fernanda Paranhos</t>
   </si>
   <si>
-    <t>Fernando.Barbagallo@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Fernando Barbagallo</t>
   </si>
   <si>
-    <t>Flaviane.Marinho@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Flaviane Do Nascimento Marinho</t>
   </si>
   <si>
@@ -481,27 +325,15 @@
     <t>Flavio Machado Santos</t>
   </si>
   <si>
-    <t>FlavioC@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Flavio Kantor Cuperman</t>
   </si>
   <si>
-    <t>Franciscojunior@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Francisco Junior</t>
   </si>
   <si>
-    <t>FredyRuback@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Fredy Ruback</t>
   </si>
   <si>
-    <t>Gabriel.Jadoul@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Gabriel Lagnado Jadoul</t>
   </si>
   <si>
@@ -511,57 +343,30 @@
     <t>George Zausner</t>
   </si>
   <si>
-    <t>GILSON.COSTA@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Gilson Luis da Costa</t>
   </si>
   <si>
-    <t>GiseleP@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Gisele Pires</t>
   </si>
   <si>
-    <t>Grace.Sipos@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Grace Sipos</t>
   </si>
   <si>
-    <t>GREGORY.BEIRAO@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Gregory Pinto Ribeiro Beirao</t>
   </si>
   <si>
-    <t>Guilherme.DosSantos@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Guilherme Ferreira Dos Santos</t>
   </si>
   <si>
-    <t>Guilherme.Mutri@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Guilherme Augusto Mutri Da Silva</t>
   </si>
   <si>
-    <t>Guilhermetonelli@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Guilherme Tonelli</t>
   </si>
   <si>
-    <t>Gustavo.Correa@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Gustavo Vielmo Correa</t>
   </si>
   <si>
-    <t>GUSTAVO.NAVARRO@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Gustavo Pedroso Navarro</t>
   </si>
   <si>
@@ -571,9 +376,6 @@
     <t>Gustavo Rassi de Andrade Vaz</t>
   </si>
   <si>
-    <t>IanVieira@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Ian Vieira</t>
   </si>
   <si>
@@ -583,9 +385,6 @@
     <t>Igor Francisco Vieira</t>
   </si>
   <si>
-    <t>IngridMalafaia@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Ingrid Malafaia</t>
   </si>
   <si>
@@ -595,15 +394,9 @@
     <t>Isabel Cristina Pioli Soares</t>
   </si>
   <si>
-    <t>IsabelaOliveira@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Isabela Oliveira</t>
   </si>
   <si>
-    <t>Iuri.Campos@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Iuri Zanutto de Jesus Campos</t>
   </si>
   <si>
@@ -631,27 +424,15 @@
     <t>Jerusa Lopes Rodrigues</t>
   </si>
   <si>
-    <t>Jessica.Coutinho@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Jessica Vicentino Coutinho</t>
   </si>
   <si>
-    <t>Jessicaramos@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Jessica Ramos</t>
   </si>
   <si>
-    <t>JoanaNobrega@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Joana Nobrega</t>
   </si>
   <si>
-    <t>Joao.Quina@cyrela.com.br</t>
-  </si>
-  <si>
     <t>João Quina</t>
   </si>
   <si>
@@ -661,51 +442,27 @@
     <t>Joicy Fabricia Nascimento da Costa</t>
   </si>
   <si>
-    <t>Juan.Oliveira@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Juan Carlo Germano Oliveira</t>
   </si>
   <si>
-    <t>Julia.Costa@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Julia Mascarenhas Costa</t>
   </si>
   <si>
-    <t>Julia.Morais@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Julia Lozano de Morais</t>
   </si>
   <si>
-    <t>Juliana.Ramos@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Juliana De Castro Ramos Martins</t>
   </si>
   <si>
-    <t>Juliana.Sousa@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Juliana Sousa</t>
   </si>
   <si>
-    <t>KarinaCavalcanti@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Karina Cavalcanti</t>
   </si>
   <si>
-    <t>KatheryneCurty@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Katheryne Curty</t>
   </si>
   <si>
-    <t>KatrineQuintanilha@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Katrine Quintanilha</t>
   </si>
   <si>
@@ -715,27 +472,15 @@
     <t>Keyla Pereira</t>
   </si>
   <si>
-    <t>Landulfo.Junior@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Landulfo Ferreira da Silva Junior</t>
   </si>
   <si>
-    <t>LarissaTeixeira@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Larissa Teixeira</t>
   </si>
   <si>
-    <t>Laura.Fernandes@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Laura Fernandes</t>
   </si>
   <si>
-    <t>Leandro.Caramel@vivazvendas.com.br</t>
-  </si>
-  <si>
     <t>Leandro Carlton Caramel</t>
   </si>
   <si>
@@ -745,33 +490,18 @@
     <t>Leandro Terra</t>
   </si>
   <si>
-    <t>Leticia.Arnold@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Leticia Paim Arnold</t>
   </si>
   <si>
-    <t>Leticia.Damascena@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Letícia Damascena</t>
   </si>
   <si>
-    <t>Leticia.Leme@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Leticia Cristina Leme de Oliveira</t>
   </si>
   <si>
-    <t>Leticia.Peixoto@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Leticia Peixoto Da Silva</t>
   </si>
   <si>
-    <t>Leticia.Silva@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Leticia Da Silva Araujo Santos</t>
   </si>
   <si>
@@ -781,9 +511,6 @@
     <t>Ligia da Costa</t>
   </si>
   <si>
-    <t>LuanaAzambuja@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Luana Azambuja</t>
   </si>
   <si>
@@ -793,21 +520,12 @@
     <t>Lucas Almeida Gil</t>
   </si>
   <si>
-    <t>LuciaR@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Maria Lúcia de Jesus Rei</t>
   </si>
   <si>
-    <t>Luis.Domingos@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Luis Augusto Martins Domingos</t>
   </si>
   <si>
-    <t>Luiz.Maia@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Luiz Felipe Alo Maia</t>
   </si>
   <si>
@@ -817,51 +535,27 @@
     <t>Luiz Guilherme Rocha Paludo</t>
   </si>
   <si>
-    <t>Luiza.Castro@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Luiza Machado Silveira De Castro</t>
   </si>
   <si>
-    <t>LuizFelipeMaia@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Luiz Felipe Maia</t>
   </si>
   <si>
-    <t>Magally.Aleixo@cashme.com.br</t>
-  </si>
-  <si>
     <t>Magally Miranda Aleixo</t>
   </si>
   <si>
-    <t>Manuella.Paiva@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Manuella Paiva</t>
   </si>
   <si>
-    <t>Mara.Ferreira@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Mara Ferreira</t>
   </si>
   <si>
-    <t>Marcela.Bocchi@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Marcela Arilla Bocchi</t>
   </si>
   <si>
-    <t>Marcelo.Martinelli@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Marcelo Edgar Franco Martinelli</t>
   </si>
   <si>
-    <t>Marcelo.Peruffo@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Marcelo Peruffo</t>
   </si>
   <si>
@@ -871,63 +565,33 @@
     <t>Marcio Roberto Gomes Belem</t>
   </si>
   <si>
-    <t>MarcioT@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Marcio Akira Taka</t>
   </si>
   <si>
-    <t>Marcos.Parrucci@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Marcos Parrucci</t>
   </si>
   <si>
-    <t>Maria.Menezes@cashme.com.br</t>
-  </si>
-  <si>
     <t>Maria Julia Menezes Breda</t>
   </si>
   <si>
-    <t>MarianaRodrigues@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Mariana Rodrigues</t>
   </si>
   <si>
-    <t>MarianeSouza@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Mariane Souza</t>
   </si>
   <si>
-    <t>Marina.Omitto@cashme.com.br</t>
-  </si>
-  <si>
     <t>Marina Pereira Omitto</t>
   </si>
   <si>
-    <t>MARISA.EBLING@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Marisa Odila Dias Ebling</t>
   </si>
   <si>
-    <t>Mateus.Mendes@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Mateus de Lima Mendes</t>
   </si>
   <si>
-    <t>MatheusAragao@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Matheus Aragão</t>
   </si>
   <si>
-    <t>MatheusAranha@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Matheus Aranha</t>
   </si>
   <si>
@@ -943,15 +607,9 @@
     <t>Melissa Betina Bohns Meyer</t>
   </si>
   <si>
-    <t>Michele.Isler@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Michele Isler</t>
   </si>
   <si>
-    <t>Michelgottlieb@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Michel Gottlieb</t>
   </si>
   <si>
@@ -961,9 +619,6 @@
     <t>Miguel Mickelberg</t>
   </si>
   <si>
-    <t>Natalia.Alves@vivazvendas.com.br</t>
-  </si>
-  <si>
     <t>Natalia Alves</t>
   </si>
   <si>
@@ -973,15 +628,9 @@
     <t>Natalia Stute Mamede Fracchetta</t>
   </si>
   <si>
-    <t>Nataliarodrigues@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Natália Rodrigues</t>
   </si>
   <si>
-    <t>Nei.Silva@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Nei Ferreira da Silva</t>
   </si>
   <si>
@@ -991,27 +640,15 @@
     <t>Rafael Novellino</t>
   </si>
   <si>
-    <t>OliverA@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Oliver Roberto Andrade</t>
   </si>
   <si>
-    <t>OrlandoP@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Orlando Barbosa Pereira</t>
   </si>
   <si>
-    <t>Pamela.Guimaraes@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Pamela de Pádua Paula Guimarães</t>
   </si>
   <si>
-    <t>PatriciaMoura@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Patricia Moura</t>
   </si>
   <si>
@@ -1021,9 +658,6 @@
     <t>Paula Astrauskas</t>
   </si>
   <si>
-    <t>Paula.Pereira@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Paula Rebello Pereira</t>
   </si>
   <si>
@@ -1033,21 +667,12 @@
     <t>Paulina Souza da Cunha</t>
   </si>
   <si>
-    <t>Pauline.Duailibe@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Pauline Duailibe</t>
   </si>
   <si>
-    <t>Pedro.Nascimento@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Pedro Baptista Do Nascimento</t>
   </si>
   <si>
-    <t>PieroS@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Piero Sevilla</t>
   </si>
   <si>
@@ -1057,51 +682,27 @@
     <t>Rafael Paiva Della Santina</t>
   </si>
   <si>
-    <t>RafaelH@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Raphael Horn</t>
   </si>
   <si>
-    <t>Rafaella.Carvalho@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Rafaella Carvalho</t>
   </si>
   <si>
-    <t>Raphael.Maran@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Raphael Maran</t>
   </si>
   <si>
-    <t>Raphaellacerda@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Raphael Lacerda</t>
   </si>
   <si>
-    <t>Raquel.Araujo@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Raquel Alves de Araujo</t>
   </si>
   <si>
-    <t>Raquel.Matias@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Raquel Gaudencio Matias Da Silva</t>
   </si>
   <si>
-    <t>Renan.Carrascosa@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Renan Balieiro Carrascosa</t>
   </si>
   <si>
-    <t>RENAN.CURIAL@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Renan Renoir Rocha Curial</t>
   </si>
   <si>
@@ -1111,51 +712,27 @@
     <t>Renan Lopes</t>
   </si>
   <si>
-    <t>Renata.Hansen@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Renata Hansen</t>
   </si>
   <si>
-    <t>Renata.Meireles@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Renata Meireles</t>
   </si>
   <si>
-    <t>Renata.Pessoa@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Renata Baptista Pessoa</t>
   </si>
   <si>
-    <t>Renata.Samuel@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Renata Franco Samuel</t>
   </si>
   <si>
-    <t>Renata.Souza@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Renata Moreira</t>
   </si>
   <si>
-    <t>RenataH@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Renata Hatimine</t>
   </si>
   <si>
-    <t>Ricardo.Cedraz@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Ricardo Cedraz de Oliveira</t>
   </si>
   <si>
-    <t>Ricardo.Coelho@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Ricardo Coelho</t>
   </si>
   <si>
@@ -1165,45 +742,24 @@
     <t>Ricardo Hess Weinstein</t>
   </si>
   <si>
-    <t>RODRIGO.LINCK@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Rodrigo de Azambuja Linck</t>
   </si>
   <si>
-    <t>Rodrigo.Muller@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Rodrigo Carvalho Muller</t>
   </si>
   <si>
-    <t>Rodrigo.Putinato@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Rodrigo Putinato</t>
   </si>
   <si>
-    <t>Rodrigo.Telles@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Rodrigo Leite Telles</t>
   </si>
   <si>
-    <t>Rosemeire.Costa@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Rosemeire Bastos Costa</t>
   </si>
   <si>
-    <t>Sigrid.Barcelos@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Sigrid Barcelos - Controladoria</t>
   </si>
   <si>
-    <t>Sumaia.Goncalves@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Sumaia Sleiman Gonçalves</t>
   </si>
   <si>
@@ -1213,9 +769,6 @@
     <t>Taiane Massuchetti</t>
   </si>
   <si>
-    <t>TalitaNeves@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Talita Neves</t>
   </si>
   <si>
@@ -1231,21 +784,12 @@
     <t>Telma Page Graziano</t>
   </si>
   <si>
-    <t>Thais.Souza@vivazvendas.com.br</t>
-  </si>
-  <si>
     <t>Thais Batista De Souza</t>
   </si>
   <si>
-    <t>Thamiris.Marques@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Thamiris Valente Marques</t>
   </si>
   <si>
-    <t>Thaysgoes@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Thays Goes</t>
   </si>
   <si>
@@ -1255,9 +799,6 @@
     <t>Thiago Rodrigues Berte</t>
   </si>
   <si>
-    <t>Thiago.Castro@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Thiago Coutinho De Castro</t>
   </si>
   <si>
@@ -1273,18 +814,9 @@
     <t>Thiago Moura Dos Santos</t>
   </si>
   <si>
-    <t>Thiago.Vilela@cashme.com.br</t>
-  </si>
-  <si>
     <t>Thiago Davi de Jesus Vilela</t>
   </si>
   <si>
-    <t>Thiago.vilela@cyrela.com.br</t>
-  </si>
-  <si>
-    <t>ThiagoAthayde@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Thiago Athayde</t>
   </si>
   <si>
@@ -1300,9 +832,6 @@
     <t>Vanessa Pereira de Souza</t>
   </si>
   <si>
-    <t>Veridiana.Lopes@vivazvendas.com.br</t>
-  </si>
-  <si>
     <t>Veridiana Monticelli Lopes</t>
   </si>
   <si>
@@ -1318,27 +847,15 @@
     <t>Victor Andrade</t>
   </si>
   <si>
-    <t>Virginia.Carneiro@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Virginia Alexandre De Andrade Carneiro Reges</t>
   </si>
   <si>
-    <t>Vitor.Marques@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Vitor Marques De Oliveira</t>
   </si>
   <si>
-    <t>VitorXimenes@rjzcyrela.com.br</t>
-  </si>
-  <si>
     <t>Vitor Ximenes</t>
   </si>
   <si>
-    <t>Vivian.Rosenthal@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Vivian Rosenthal</t>
   </si>
   <si>
@@ -1354,21 +871,12 @@
     <t>William Frankilin de Almeida Matos</t>
   </si>
   <si>
-    <t>Yana.Couto@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Yana Couto</t>
   </si>
   <si>
-    <t>YedaM@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Yeda Maria Simao Mera</t>
   </si>
   <si>
-    <t>Yuri.Dreyer@cyrela.com.br</t>
-  </si>
-  <si>
     <t>Yuri Dreyer</t>
   </si>
   <si>
@@ -1409,13 +917,502 @@
   </si>
   <si>
     <t>gestor_contr,cons_todos_ccs</t>
+  </si>
+  <si>
+    <t>adriano.ferreira@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>alaindeveza@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>alexandre.dentes@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>alexandre.lopes@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>ana.serpa@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>anderson.alexandre@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>andersoncaetano@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>andre.silva@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>andreaf@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>andressacanssi@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>arielle.saboia@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>arthur.inacio@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>augusto.santos@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>bianca.abreu@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>biankavervloet@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>bruno.silva@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>brunoleal@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>caio.pereira@vivazvendas.com.br</t>
+  </si>
+  <si>
+    <t>camila.medronha@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>carlosbandeira@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>carolina.festugatto@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>caroline.caser@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>caroline.souza@vivazvendas.com.br</t>
+  </si>
+  <si>
+    <t>christianenava@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>cristianebraga@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>cristina.carneiro@vivazvendas.com.br</t>
+  </si>
+  <si>
+    <t>cyrela\sheila.cardoso@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>daniel.polizel@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>daniele.oliveira@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>daniloa@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>davi.cardoso@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>david.silva@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>deborah.bora@cashme.com.br</t>
+  </si>
+  <si>
+    <t>deborah.bora@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>denise.borin@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>deniset@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>diana.fan@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>diegoalves@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>diogo.fernandes@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>eduardo.lopes@cashme.com.br</t>
+  </si>
+  <si>
+    <t>efraimh@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>elenicena@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>ericacavalcante@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>erick.santos@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>fabiana.torres@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>felipe.cunha@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>felipekumstat@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>fernanda.camarini@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>fernandaparanhos@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>fernando.barbagallo@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>flaviane.marinho@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>flavioc@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>franciscojunior@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>fredyruback@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>gabriel.jadoul@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>gilson.costa@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>giselep@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>grace.sipos@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>gregory.beirao@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>guilherme.dossantos@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>guilherme.mutri@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>guilhermetonelli@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>gustavo.correa@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>gustavo.navarro@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>ianvieira@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>ingridmalafaia@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>isabelaoliveira@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>iuri.campos@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>jessica.coutinho@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>jessicaramos@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>joananobrega@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>joao.quina@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>juan.oliveira@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>julia.costa@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>julia.morais@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>juliana.ramos@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>juliana.sousa@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>karinacavalcanti@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>katherynecurty@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>katrinequintanilha@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>landulfo.junior@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>larissateixeira@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>laura.fernandes@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>leandro.caramel@vivazvendas.com.br</t>
+  </si>
+  <si>
+    <t>leticia.arnold@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>leticia.damascena@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>leticia.leme@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>leticia.peixoto@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>leticia.silva@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>luanaazambuja@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>luciar@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>luis.domingos@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>luiz.maia@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>luiza.castro@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>luizfelipemaia@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>magally.aleixo@cashme.com.br</t>
+  </si>
+  <si>
+    <t>manuella.paiva@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>mara.ferreira@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>marcela.bocchi@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>marcelo.martinelli@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>marcelo.peruffo@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>marciot@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>marcos.parrucci@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>maria.menezes@cashme.com.br</t>
+  </si>
+  <si>
+    <t>marianarodrigues@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>marianesouza@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>marina.omitto@cashme.com.br</t>
+  </si>
+  <si>
+    <t>marisa.ebling@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>mateus.mendes@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>matheusaragao@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>matheusaranha@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>michele.isler@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>michelgottlieb@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>natalia.alves@vivazvendas.com.br</t>
+  </si>
+  <si>
+    <t>nataliarodrigues@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>nei.silva@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>olivera@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>orlandop@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>pamela.guimaraes@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>patriciamoura@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>paula.pereira@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>pauline.duailibe@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>pedro.nascimento@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>pieros@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>rafaelh@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>rafaella.carvalho@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>raphael.maran@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>raphaellacerda@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>raquel.araujo@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>raquel.matias@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>renan.carrascosa@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>renan.curial@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>renata.hansen@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>renata.meireles@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>renata.pessoa@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>renata.samuel@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>renata.souza@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>renatah@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>ricardo.cedraz@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>ricardo.coelho@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>rodrigo.linck@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>rodrigo.muller@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>rodrigo.putinato@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>rodrigo.telles@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>rosemeire.costa@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>sigrid.barcelos@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>sumaia.goncalves@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>talitaneves@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>thais.souza@vivazvendas.com.br</t>
+  </si>
+  <si>
+    <t>thamiris.marques@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>thaysgoes@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>thiago.castro@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>thiago.vilela@cashme.com.br</t>
+  </si>
+  <si>
+    <t>thiago.vilela@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>thiagoathayde@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>veridiana.lopes@vivazvendas.com.br</t>
+  </si>
+  <si>
+    <t>virginia.carneiro@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>vitor.marques@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>vitorximenes@rjzcyrela.com.br</t>
+  </si>
+  <si>
+    <t>vivian.rosenthal@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>yana.couto@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>yedam@cyrela.com.br</t>
+  </si>
+  <si>
+    <t>yuri.dreyer@cyrela.com.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1546,6 +1543,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1854,7 +1859,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1897,12 +1902,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1932,6 +1939,7 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -2256,11 +2264,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D212" sqref="D212"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,31 +2285,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>449</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>450</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>451</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>452</v>
+        <v>288</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>453</v>
+        <v>289</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>454</v>
+        <v>290</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>455</v>
+        <v>291</v>
       </c>
       <c r="H1" t="s">
-        <v>456</v>
+        <v>292</v>
       </c>
       <c r="I1" t="s">
-        <v>457</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2327,16 +2335,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -2353,15 +2361,15 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -2379,15 +2387,15 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -2405,15 +2413,15 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -2431,15 +2439,15 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -2457,15 +2465,15 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -2483,15 +2491,15 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -2509,15 +2517,15 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2535,15 +2543,15 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2561,15 +2569,15 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2587,15 +2595,15 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -2613,15 +2621,15 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -2639,15 +2647,15 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -2665,15 +2673,15 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -2691,15 +2699,15 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -2717,15 +2725,15 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -2743,15 +2751,15 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -2769,15 +2777,15 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -2795,15 +2803,15 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -2821,15 +2829,15 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -2847,15 +2855,15 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -2873,15 +2881,15 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -2899,15 +2907,15 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>311</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -2925,15 +2933,15 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>312</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -2951,15 +2959,15 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -2977,15 +2985,15 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>314</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -3003,15 +3011,15 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -3029,15 +3037,15 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -3055,21 +3063,21 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
         <v>0</v>
@@ -3081,18 +3089,18 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>458</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -3110,15 +3118,15 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -3136,21 +3144,21 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
         <v>0</v>
@@ -3162,18 +3170,18 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s">
-        <v>458</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -3191,15 +3199,15 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -3217,15 +3225,15 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -3243,15 +3251,15 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -3269,15 +3277,15 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -3295,15 +3303,15 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -3321,15 +3329,15 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -3347,15 +3355,15 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -3373,15 +3381,15 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -3399,15 +3407,15 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -3425,15 +3433,15 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>324</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -3451,15 +3459,15 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -3477,15 +3485,15 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -3503,15 +3511,15 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -3529,15 +3537,15 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
@@ -3555,15 +3563,15 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
@@ -3581,15 +3589,15 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -3607,15 +3615,15 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
@@ -3633,21 +3641,21 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
         <v>0</v>
@@ -3659,21 +3667,24 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I53" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>331</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E54" t="s">
         <v>0</v>
@@ -3685,18 +3696,15 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>60</v>
-      </c>
-      <c r="I54" t="s">
-        <v>458</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>332</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -3714,15 +3722,15 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
@@ -3740,15 +3748,15 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -3766,15 +3774,15 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>335</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -3792,70 +3800,70 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>336</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I59" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>60</v>
-      </c>
-      <c r="I60" t="s">
-        <v>459</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -3873,15 +3881,15 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -3899,15 +3907,15 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>337</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
@@ -3925,15 +3933,15 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>338</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -3951,15 +3959,15 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -3977,15 +3985,15 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
@@ -4003,15 +4011,15 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>340</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -4029,15 +4037,15 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>341</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -4055,15 +4063,15 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -4081,15 +4089,15 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>343</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
@@ -4107,15 +4115,15 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>344</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
@@ -4133,15 +4141,15 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -4159,15 +4167,15 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
@@ -4185,15 +4193,15 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -4211,15 +4219,15 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
@@ -4237,21 +4245,21 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E76" t="s">
         <v>0</v>
@@ -4263,21 +4271,24 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I76" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>349</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E77" t="s">
         <v>0</v>
@@ -4289,18 +4300,15 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" t="s">
-        <v>458</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>350</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
@@ -4318,15 +4326,15 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>351</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
@@ -4344,15 +4352,15 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>352</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
@@ -4370,15 +4378,15 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
@@ -4396,15 +4404,15 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>353</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
@@ -4422,15 +4430,15 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>354</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
@@ -4448,15 +4456,15 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>355</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
@@ -4474,15 +4482,15 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -4500,15 +4508,15 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>357</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
@@ -4526,70 +4534,70 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>358</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="C87" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I87" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>359</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D88" t="s">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>60</v>
-      </c>
-      <c r="I88" t="s">
-        <v>459</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>360</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
@@ -4607,15 +4615,15 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>361</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
@@ -4633,15 +4641,15 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
@@ -4659,21 +4667,21 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>362</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E92" t="s">
         <v>0</v>
@@ -4685,21 +4693,24 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I92" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E93" t="s">
         <v>0</v>
@@ -4711,18 +4722,15 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>60</v>
-      </c>
-      <c r="I93" t="s">
-        <v>458</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>363</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
@@ -4740,15 +4748,15 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
@@ -4766,15 +4774,15 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>364</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -4792,15 +4800,15 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>365</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
@@ -4818,15 +4826,15 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -4844,15 +4852,15 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
@@ -4870,15 +4878,15 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
@@ -4896,15 +4904,15 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
@@ -4922,15 +4930,15 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
@@ -4948,15 +4956,15 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>367</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
@@ -4974,15 +4982,15 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>368</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
@@ -5000,15 +5008,15 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>369</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="C105" t="s">
         <v>0</v>
@@ -5026,15 +5034,15 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="C106" t="s">
         <v>0</v>
@@ -5052,15 +5060,15 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>370</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
@@ -5078,15 +5086,15 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>371</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
@@ -5104,15 +5112,15 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>372</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
@@ -5130,15 +5138,15 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>373</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
@@ -5156,15 +5164,15 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>374</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
@@ -5182,15 +5190,15 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
@@ -5208,15 +5216,15 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>376</v>
       </c>
       <c r="B113" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="C113" t="s">
         <v>0</v>
@@ -5234,15 +5242,15 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>377</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
@@ -5260,15 +5268,15 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
@@ -5286,76 +5294,79 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>378</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="C116" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I116" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>379</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="C117" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E117" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G117" t="s">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I117" t="s">
-        <v>459</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>380</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E118" t="s">
         <v>0</v>
@@ -5367,18 +5378,15 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>60</v>
-      </c>
-      <c r="I118" t="s">
-        <v>458</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>381</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="C119" t="s">
         <v>0</v>
@@ -5396,15 +5404,15 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
@@ -5422,70 +5430,70 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>382</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="C121" t="s">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E121" t="s">
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I121" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>383</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="C122" t="s">
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E122" t="s">
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>60</v>
-      </c>
-      <c r="I122" t="s">
-        <v>460</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>242</v>
+        <v>384</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="C123" t="s">
         <v>0</v>
@@ -5503,15 +5511,15 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>385</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="C124" t="s">
         <v>0</v>
@@ -5529,15 +5537,15 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>386</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="C125" t="s">
         <v>0</v>
@@ -5555,15 +5563,15 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="B126" t="s">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
         <v>0</v>
@@ -5581,15 +5589,15 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>250</v>
+        <v>387</v>
       </c>
       <c r="B127" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="C127" t="s">
         <v>0</v>
@@ -5607,15 +5615,15 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="C128" t="s">
         <v>0</v>
@@ -5633,15 +5641,15 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>388</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="C129" t="s">
         <v>0</v>
@@ -5659,15 +5667,15 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>389</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="C130" t="s">
         <v>0</v>
@@ -5685,15 +5693,15 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>390</v>
       </c>
       <c r="B131" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="C131" t="s">
         <v>0</v>
@@ -5711,15 +5719,15 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="C132" t="s">
         <v>0</v>
@@ -5737,15 +5745,15 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>391</v>
       </c>
       <c r="B133" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="C133" t="s">
         <v>0</v>
@@ -5763,15 +5771,15 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>392</v>
       </c>
       <c r="B134" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="C134" t="s">
         <v>0</v>
@@ -5789,15 +5797,15 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="C135" t="s">
         <v>0</v>
@@ -5815,15 +5823,15 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>394</v>
       </c>
       <c r="B136" t="s">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="C136" t="s">
         <v>0</v>
@@ -5841,15 +5849,15 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>395</v>
       </c>
       <c r="B137" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="C137" t="s">
         <v>0</v>
@@ -5867,15 +5875,15 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="C138" t="s">
         <v>0</v>
@@ -5893,15 +5901,15 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>397</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="C139" t="s">
         <v>0</v>
@@ -5919,15 +5927,15 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>276</v>
+        <v>398</v>
       </c>
       <c r="B140" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="C140" t="s">
         <v>0</v>
@@ -5945,15 +5953,15 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="C141" t="s">
         <v>0</v>
@@ -5971,15 +5979,15 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
       <c r="B142" t="s">
-        <v>281</v>
+        <v>180</v>
       </c>
       <c r="C142" t="s">
         <v>0</v>
@@ -5997,15 +6005,15 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>400</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="C143" t="s">
         <v>0</v>
@@ -6023,15 +6031,15 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="C144" t="s">
         <v>0</v>
@@ -6049,21 +6057,21 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>402</v>
       </c>
       <c r="B145" t="s">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="C145" t="s">
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E145" t="s">
         <v>0</v>
@@ -6075,21 +6083,24 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I145" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>403</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="C146" t="s">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E146" t="s">
         <v>0</v>
@@ -6101,24 +6112,24 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I146" t="s">
-        <v>458</v>
+        <v>294</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>404</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="C147" t="s">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E147" t="s">
         <v>0</v>
@@ -6130,18 +6141,15 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>60</v>
-      </c>
-      <c r="I147" t="s">
-        <v>458</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>186</v>
       </c>
       <c r="C148" t="s">
         <v>0</v>
@@ -6159,47 +6167,50 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>406</v>
+      </c>
+      <c r="B149" t="s">
+        <v>187</v>
+      </c>
+      <c r="C149" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>41</v>
+      </c>
+      <c r="E149" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>41</v>
+      </c>
+      <c r="I149" t="s">
         <v>294</v>
-      </c>
-      <c r="B149" t="s">
-        <v>295</v>
-      </c>
-      <c r="C149" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" t="s">
-        <v>0</v>
-      </c>
-      <c r="E149" t="s">
-        <v>0</v>
-      </c>
-      <c r="F149" t="s">
-        <v>0</v>
-      </c>
-      <c r="G149" t="s">
-        <v>0</v>
-      </c>
-      <c r="H149" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>407</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c r="C150" t="s">
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E150" t="s">
         <v>0</v>
@@ -6211,18 +6222,15 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>60</v>
-      </c>
-      <c r="I150" t="s">
-        <v>458</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>408</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="C151" t="s">
         <v>0</v>
@@ -6240,15 +6248,15 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c r="C152" t="s">
         <v>0</v>
@@ -6266,15 +6274,15 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>193</v>
       </c>
       <c r="C153" t="s">
         <v>0</v>
@@ -6292,15 +6300,15 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>409</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="C154" t="s">
         <v>0</v>
@@ -6318,15 +6326,15 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>410</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>195</v>
       </c>
       <c r="C155" t="s">
         <v>0</v>
@@ -6344,70 +6352,70 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
+        <v>197</v>
       </c>
       <c r="C156" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D156" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E156" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I156" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>411</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="C157" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G157" t="s">
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>60</v>
-      </c>
-      <c r="I157" t="s">
-        <v>459</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>200</v>
       </c>
       <c r="C158" t="s">
         <v>0</v>
@@ -6425,15 +6433,15 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>412</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="C159" t="s">
         <v>0</v>
@@ -6451,15 +6459,15 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>413</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="C160" t="s">
         <v>0</v>
@@ -6477,15 +6485,15 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="C161" t="s">
         <v>0</v>
@@ -6503,15 +6511,15 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>414</v>
       </c>
       <c r="B162" t="s">
-        <v>321</v>
+        <v>205</v>
       </c>
       <c r="C162" t="s">
         <v>0</v>
@@ -6529,15 +6537,15 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>415</v>
       </c>
       <c r="B163" t="s">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="C163" t="s">
         <v>0</v>
@@ -6555,15 +6563,15 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>416</v>
       </c>
       <c r="B164" t="s">
-        <v>325</v>
+        <v>207</v>
       </c>
       <c r="C164" t="s">
         <v>0</v>
@@ -6581,15 +6589,15 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>417</v>
       </c>
       <c r="B165" t="s">
-        <v>327</v>
+        <v>208</v>
       </c>
       <c r="C165" t="s">
         <v>0</v>
@@ -6607,15 +6615,15 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>328</v>
+        <v>209</v>
       </c>
       <c r="B166" t="s">
-        <v>329</v>
+        <v>210</v>
       </c>
       <c r="C166" t="s">
         <v>0</v>
@@ -6633,15 +6641,15 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>330</v>
+        <v>418</v>
       </c>
       <c r="B167" t="s">
-        <v>331</v>
+        <v>211</v>
       </c>
       <c r="C167" t="s">
         <v>0</v>
@@ -6659,15 +6667,15 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>332</v>
+        <v>212</v>
       </c>
       <c r="B168" t="s">
-        <v>333</v>
+        <v>213</v>
       </c>
       <c r="C168" t="s">
         <v>0</v>
@@ -6685,15 +6693,15 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>419</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>214</v>
       </c>
       <c r="C169" t="s">
         <v>0</v>
@@ -6711,15 +6719,15 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="B170" t="s">
-        <v>337</v>
+        <v>215</v>
       </c>
       <c r="C170" t="s">
         <v>0</v>
@@ -6737,15 +6745,15 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>338</v>
+        <v>421</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="C171" t="s">
         <v>0</v>
@@ -6763,15 +6771,15 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>217</v>
       </c>
       <c r="B172" t="s">
-        <v>341</v>
+        <v>218</v>
       </c>
       <c r="C172" t="s">
         <v>0</v>
@@ -6789,21 +6797,21 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>342</v>
+        <v>422</v>
       </c>
       <c r="B173" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="C173" t="s">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E173" t="s">
         <v>0</v>
@@ -6815,21 +6823,24 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I173" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="C174" t="s">
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E174" t="s">
         <v>0</v>
@@ -6841,18 +6852,15 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>60</v>
-      </c>
-      <c r="I174" t="s">
-        <v>458</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>424</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="C175" t="s">
         <v>0</v>
@@ -6870,15 +6878,15 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>222</v>
       </c>
       <c r="C176" t="s">
         <v>0</v>
@@ -6896,15 +6904,15 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="B177" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="C177" t="s">
         <v>0</v>
@@ -6922,15 +6930,15 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>427</v>
       </c>
       <c r="B178" t="s">
-        <v>353</v>
+        <v>224</v>
       </c>
       <c r="C178" t="s">
         <v>0</v>
@@ -6948,70 +6956,70 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="B179" t="s">
-        <v>355</v>
+        <v>225</v>
       </c>
       <c r="C179" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D179" t="s">
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F179" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I179" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="B180" t="s">
-        <v>357</v>
+        <v>226</v>
       </c>
       <c r="C180" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D180" t="s">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G180" t="s">
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>60</v>
-      </c>
-      <c r="I180" t="s">
-        <v>459</v>
+        <v>41</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>227</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="C181" t="s">
         <v>0</v>
@@ -7029,15 +7037,15 @@
         <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>229</v>
       </c>
       <c r="C182" t="s">
         <v>0</v>
@@ -7055,15 +7063,15 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>431</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
+        <v>230</v>
       </c>
       <c r="C183" t="s">
         <v>0</v>
@@ -7081,15 +7089,15 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="B184" t="s">
-        <v>365</v>
+        <v>231</v>
       </c>
       <c r="C184" t="s">
         <v>0</v>
@@ -7107,15 +7115,15 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>232</v>
       </c>
       <c r="C185" t="s">
         <v>0</v>
@@ -7133,15 +7141,15 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
+        <v>233</v>
       </c>
       <c r="C186" t="s">
         <v>0</v>
@@ -7159,15 +7167,15 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="B187" t="s">
-        <v>371</v>
+        <v>234</v>
       </c>
       <c r="C187" t="s">
         <v>0</v>
@@ -7185,15 +7193,15 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="B188" t="s">
-        <v>373</v>
+        <v>235</v>
       </c>
       <c r="C188" t="s">
         <v>0</v>
@@ -7211,15 +7219,15 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="B189" t="s">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="C189" t="s">
         <v>0</v>
@@ -7237,15 +7245,15 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>376</v>
+        <v>237</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>238</v>
       </c>
       <c r="C190" t="s">
         <v>0</v>
@@ -7263,15 +7271,15 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
+        <v>239</v>
       </c>
       <c r="C191" t="s">
         <v>0</v>
@@ -7289,15 +7297,15 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="B192" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="C192" t="s">
         <v>0</v>
@@ -7315,15 +7323,15 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="B193" t="s">
-        <v>383</v>
+        <v>241</v>
       </c>
       <c r="C193" t="s">
         <v>0</v>
@@ -7341,15 +7349,15 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="B194" t="s">
-        <v>385</v>
+        <v>242</v>
       </c>
       <c r="C194" t="s">
         <v>0</v>
@@ -7367,15 +7375,15 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="B195" t="s">
-        <v>387</v>
+        <v>243</v>
       </c>
       <c r="C195" t="s">
         <v>0</v>
@@ -7393,76 +7401,76 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="B196" t="s">
-        <v>389</v>
+        <v>244</v>
       </c>
       <c r="C196" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D196" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E196" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F196" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I196" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="B197" t="s">
-        <v>391</v>
+        <v>245</v>
       </c>
       <c r="C197" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G197" t="s">
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>60</v>
-      </c>
-      <c r="I197" t="s">
-        <v>459</v>
+        <v>41</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>392</v>
+        <v>246</v>
       </c>
       <c r="B198" t="s">
-        <v>393</v>
+        <v>247</v>
       </c>
       <c r="C198" t="s">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E198" t="s">
         <v>0</v>
@@ -7474,21 +7482,24 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I198" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="B199" t="s">
-        <v>395</v>
+        <v>248</v>
       </c>
       <c r="C199" t="s">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E199" t="s">
         <v>0</v>
@@ -7500,18 +7511,15 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>60</v>
-      </c>
-      <c r="I199" t="s">
-        <v>458</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>396</v>
+        <v>249</v>
       </c>
       <c r="B200" t="s">
-        <v>397</v>
+        <v>250</v>
       </c>
       <c r="C200" t="s">
         <v>0</v>
@@ -7529,15 +7537,15 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>398</v>
+        <v>251</v>
       </c>
       <c r="B201" t="s">
-        <v>399</v>
+        <v>252</v>
       </c>
       <c r="C201" t="s">
         <v>0</v>
@@ -7555,15 +7563,15 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="B202" t="s">
-        <v>401</v>
+        <v>253</v>
       </c>
       <c r="C202" t="s">
         <v>0</v>
@@ -7581,15 +7589,15 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="B203" t="s">
-        <v>403</v>
+        <v>254</v>
       </c>
       <c r="C203" t="s">
         <v>0</v>
@@ -7607,15 +7615,15 @@
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="B204" t="s">
-        <v>405</v>
+        <v>255</v>
       </c>
       <c r="C204" t="s">
         <v>0</v>
@@ -7633,15 +7641,15 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>406</v>
+        <v>256</v>
       </c>
       <c r="B205" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
       <c r="C205" t="s">
         <v>0</v>
@@ -7659,21 +7667,21 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="B206" t="s">
-        <v>409</v>
+        <v>258</v>
       </c>
       <c r="C206" t="s">
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E206" t="s">
         <v>0</v>
@@ -7685,21 +7693,24 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I206" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>410</v>
+        <v>259</v>
       </c>
       <c r="B207" t="s">
-        <v>411</v>
+        <v>260</v>
       </c>
       <c r="C207" t="s">
         <v>0</v>
       </c>
       <c r="D207" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E207" t="s">
         <v>0</v>
@@ -7711,18 +7722,15 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>60</v>
-      </c>
-      <c r="I207" t="s">
-        <v>458</v>
+        <v>41</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>412</v>
+        <v>261</v>
       </c>
       <c r="B208" t="s">
-        <v>413</v>
+        <v>262</v>
       </c>
       <c r="C208" t="s">
         <v>0</v>
@@ -7740,15 +7748,15 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="B209" t="s">
-        <v>415</v>
+        <v>263</v>
       </c>
       <c r="C209" t="s">
         <v>0</v>
@@ -7766,15 +7774,15 @@
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="B210" t="s">
-        <v>417</v>
+        <v>263</v>
       </c>
       <c r="C210" t="s">
         <v>0</v>
@@ -7792,15 +7800,15 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>418</v>
+      <c r="A211" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="B211" t="s">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="C211" t="s">
         <v>0</v>
@@ -7818,70 +7826,70 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>419</v>
+        <v>265</v>
       </c>
       <c r="B212" t="s">
-        <v>420</v>
+        <v>266</v>
       </c>
       <c r="C212" t="s">
         <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E212" t="s">
         <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G212" t="s">
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I212" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>421</v>
+        <v>267</v>
       </c>
       <c r="B213" t="s">
-        <v>422</v>
+        <v>268</v>
       </c>
       <c r="C213" t="s">
         <v>0</v>
       </c>
       <c r="D213" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E213" t="s">
         <v>0</v>
       </c>
       <c r="F213" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G213" t="s">
         <v>0</v>
       </c>
       <c r="H213" t="s">
-        <v>60</v>
-      </c>
-      <c r="I213" t="s">
-        <v>460</v>
+        <v>41</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="B214" t="s">
-        <v>424</v>
+        <v>269</v>
       </c>
       <c r="C214" t="s">
         <v>0</v>
@@ -7899,15 +7907,15 @@
         <v>0</v>
       </c>
       <c r="H214" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>425</v>
+        <v>270</v>
       </c>
       <c r="B215" t="s">
-        <v>426</v>
+        <v>271</v>
       </c>
       <c r="C215" t="s">
         <v>0</v>
@@ -7925,15 +7933,15 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>427</v>
+        <v>272</v>
       </c>
       <c r="B216" t="s">
-        <v>428</v>
+        <v>273</v>
       </c>
       <c r="C216" t="s">
         <v>0</v>
@@ -7951,15 +7959,15 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="B217" t="s">
-        <v>430</v>
+        <v>274</v>
       </c>
       <c r="C217" t="s">
         <v>0</v>
@@ -7977,18 +7985,18 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="B218" t="s">
-        <v>432</v>
+        <v>275</v>
       </c>
       <c r="C218" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D218" t="s">
         <v>0</v>
@@ -7997,24 +8005,27 @@
         <v>0</v>
       </c>
       <c r="F218" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="I218" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="B219" t="s">
-        <v>434</v>
+        <v>276</v>
       </c>
       <c r="C219" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D219" t="s">
         <v>0</v>
@@ -8023,24 +8034,21 @@
         <v>0</v>
       </c>
       <c r="F219" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G219" t="s">
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>60</v>
-      </c>
-      <c r="I219" t="s">
-        <v>461</v>
+        <v>41</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="B220" t="s">
-        <v>436</v>
+        <v>277</v>
       </c>
       <c r="C220" t="s">
         <v>0</v>
@@ -8058,15 +8066,15 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>437</v>
+        <v>278</v>
       </c>
       <c r="B221" t="s">
-        <v>438</v>
+        <v>279</v>
       </c>
       <c r="C221" t="s">
         <v>0</v>
@@ -8084,15 +8092,15 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>439</v>
+        <v>280</v>
       </c>
       <c r="B222" t="s">
-        <v>440</v>
+        <v>281</v>
       </c>
       <c r="C222" t="s">
         <v>0</v>
@@ -8110,15 +8118,15 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="B223" t="s">
-        <v>442</v>
+        <v>282</v>
       </c>
       <c r="C223" t="s">
         <v>0</v>
@@ -8136,15 +8144,15 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>443</v>
+      <c r="A224" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="B224" t="s">
-        <v>444</v>
+        <v>283</v>
       </c>
       <c r="C224" t="s">
         <v>0</v>
@@ -8162,15 +8170,15 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>445</v>
+      <c r="A225" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="B225" t="s">
-        <v>446</v>
+        <v>284</v>
       </c>
       <c r="C225" t="s">
         <v>0</v>
@@ -8188,37 +8196,16 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>447</v>
-      </c>
-      <c r="B226" t="s">
-        <v>448</v>
-      </c>
-      <c r="C226" t="s">
-        <v>0</v>
-      </c>
-      <c r="D226" t="s">
-        <v>0</v>
-      </c>
-      <c r="E226" t="s">
-        <v>0</v>
-      </c>
-      <c r="F226" t="s">
-        <v>0</v>
-      </c>
-      <c r="G226" t="s">
-        <v>0</v>
-      </c>
-      <c r="H226" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H226" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H225" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="A225" r:id="rId1" xr:uid="{9AA6D633-A86A-42BB-BB86-36AB3589FCD1}"/>
+    <hyperlink ref="A224" r:id="rId2" xr:uid="{C562CFA6-380A-4EE2-80B2-BDECB26604DB}"/>
+    <hyperlink ref="A211" r:id="rId3" xr:uid="{EDE66DA6-C737-4B7A-95AF-840EDE0B55FD}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>